--- a/biology/Botanique/Tremble/Tremble.xlsx
+++ b/biology/Botanique/Tremble/Tremble.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Populus tremula
 Le Tremble, Tremble d'Europe ou Peuplier tremble (Populus tremula) est une espèce de plantes à fleurs du genre Populus et de la famille des Salicaceae. C'est un arbre de taille moyenne à feuilles caduques. Seule espèce de peuplier forestier, il est répandu dans l'ensemble de l'Eurasie.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tremula (tremble) doit son nom au fait que ses feuilles s'agitent au moindre souffle de vent, le long pétiole aplati transversalement étant souple et flexible[1]. Ce nom est aussi utilisé au Québec pour désigner une espèce du même genre, le peuplier faux-tremble (Populus tremuloides).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tremula (tremble) doit son nom au fait que ses feuilles s'agitent au moindre souffle de vent, le long pétiole aplati transversalement étant souple et flexible. Ce nom est aussi utilisé au Québec pour désigner une espèce du même genre, le peuplier faux-tremble (Populus tremuloides).
 Malgré une étymologie populaire selon laquelle le latin Populus (peuplier) évoquerait le peuple parce que les places publiques romaines étaient ombragées de peupliers, le mot pŏpǔlus qui a donné en français « peuple », masculin avec un o court, n'est pas le même mot que le mot pōpǔlus qui a donné « peuplier », féminin, avec un o long. L'origine de ce dernier n'est pas connue.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre au port étalé à croissance vigoureuse, de taille moyenne, de 20 à 30 m de haut. L'écorce est lisse, parsemée de lenticelles en losange, se crevassant avec l'âge. Le système racinaire est traçant.
 Les feuilles sont petites, glabres, alternes, arrondies, crénelées, cordées et acuminées, à couleur variable (rouge bronze, puis vert foncé, enfin jaune en automne), à pétiole allongé et aplati, très souple. Ces feuilles peuvent réaliser la photosynthèse avec leurs deux faces.
@@ -581,7 +597,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : épi simple
@@ -623,10 +641,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Floraison vers mars-avril (avant l'apparition des feuilles).
-Arbre de croissance rapide, à longévité atteignant de 70 à 80 ans, avec un maximum de 120 ans[1]. Sa valeur écologique de Landolt est F323-433-p. C'est une essence forestière de pleine lumière, mais supportant un ombrage temporaire. Elle pousse sur des sols moyennement humides, frais et bien drainés[2]. Exigences trophiques : large amplitude trophique, moyennement acide à neutrocline (environnement au ph neutre). Elle se trouve disséminée dans les espaces libres : coupes, clairières, lisières des bois, ne formant pas de peuplements denses, mais des bouquets, car elle drageonne beaucoup. C'est une espèce pionnière lors du reboisement de terres brûlées[3].
+Arbre de croissance rapide, à longévité atteignant de 70 à 80 ans, avec un maximum de 120 ans. Sa valeur écologique de Landolt est F323-433-p. C'est une essence forestière de pleine lumière, mais supportant un ombrage temporaire. Elle pousse sur des sols moyennement humides, frais et bien drainés. Exigences trophiques : large amplitude trophique, moyennement acide à neutrocline (environnement au ph neutre). Elle se trouve disséminée dans les espaces libres : coupes, clairières, lisières des bois, ne formant pas de peuplements denses, mais des bouquets, car elle drageonne beaucoup. C'est une espèce pionnière lors du reboisement de terres brûlées.
 </t>
         </is>
       </c>
@@ -655,9 +675,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbre de plaine dans la majeure partie de l'Europe, de l'Asie du Nord (Sibérie, Chine, Mongolie, Caucase) et de l'Afrique du Nord, il vit entre les étages collinéen à subalpin en Suisse[2]. Il est présent en montagne jusqu'à 2150 m d'altitude (les plus hauts, nombreux, sont dans le Vallon de Maurin, sur la commune de Saint-Paul-sur-Ubaye dans le massif de Chambeyron)[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre de plaine dans la majeure partie de l'Europe, de l'Asie du Nord (Sibérie, Chine, Mongolie, Caucase) et de l'Afrique du Nord, il vit entre les étages collinéen à subalpin en Suisse. Il est présent en montagne jusqu'à 2150 m d'altitude (les plus hauts, nombreux, sont dans le Vallon de Maurin, sur la commune de Saint-Paul-sur-Ubaye dans le massif de Chambeyron).
 Ne pas confondre avec le tremble d'Amérique du Nord, voir Populus tremuloides.
 </t>
         </is>
@@ -687,7 +709,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois tendre et léger est utilisé pour :
 la pâte à papier,
@@ -695,8 +719,8 @@
 le déroulage (fabrication d'allumettes),
 certains toits d'église en Russie, car en vieillissant, le bois prend la couleur de l'argent,
 le calage d'arbres de cimenterie.
-L'écorce a des propriétés fébrifuges (propriétés médicinales). L’écorce interne ou xylème est utilisée dans une tisane pour traiter la fièvre, la toux et la douleur. Elle contient de la salicyline, qui se trouve également dans les saules et est l’ingrédient de base de l’aspirine[5].
-C’est une plante mellifère intéressante principalement pour son apport en propolis très tôt dans la saison apicole[6].
+L'écorce a des propriétés fébrifuges (propriétés médicinales). L’écorce interne ou xylème est utilisée dans une tisane pour traiter la fièvre, la toux et la douleur. Elle contient de la salicyline, qui se trouve également dans les saules et est l’ingrédient de base de l’aspirine.
+C’est une plante mellifère intéressante principalement pour son apport en propolis très tôt dans la saison apicole.
 </t>
         </is>
       </c>
@@ -725,9 +749,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les pays anglo-saxons, la légende dit que le bois de la vraie croix est celui du peuplier tremble. C'est pour cela qu'il tremble tout le temps : c'est d'horreur car son bois a été utilisé pour tuer le Christ[7].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les pays anglo-saxons, la légende dit que le bois de la vraie croix est celui du peuplier tremble. C'est pour cela qu'il tremble tout le temps : c'est d'horreur car son bois a été utilisé pour tuer le Christ.
 </t>
         </is>
       </c>
@@ -758,8 +784,13 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Affections des feuilles
-Harmandiola cavernosa, Harmandiola tremulae et Contarinia petioli provoquent des galles sur les feuilles.
+          <t>Affections des feuilles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harmandiola cavernosa, Harmandiola tremulae et Contarinia petioli provoquent des galles sur les feuilles.
 </t>
         </is>
       </c>
@@ -788,9 +819,11 @@
           <t>Phytosanitaire</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tremble est vecteur de la rouille courbeuse du pin maritime. Il est donc déconseillé de cultiver ces deux espèces proches l'une de l'autre[8].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tremble est vecteur de la rouille courbeuse du pin maritime. Il est donc déconseillé de cultiver ces deux espèces proches l'une de l'autre.
 </t>
         </is>
       </c>
